--- a/table/Table_1.xlsx
+++ b/table/Table_1.xlsx
@@ -13,7 +13,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>perc_total</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perc_infection</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perc_non_infection</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perc_influenza_like</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perc_total</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perc_infection</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perc_non_infection</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perc_influenza_like</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Precp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>sumworkdays</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Treatment_Pre</t>
+  </si>
+  <si>
+    <t>Treatment_Post</t>
+  </si>
+  <si>
+    <t>Control_Pre</t>
+  </si>
+  <si>
+    <t>Control_Post</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
@@ -153,24 +243,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>21685.88671875</v>
@@ -179,7 +269,7 @@
         <v>18713.306640625</v>
       </c>
       <c r="D2" s="1">
-        <v>20927.365234375</v>
+        <v>20915.6796875</v>
       </c>
       <c r="E2" s="1">
         <v>20269.15234375</v>
@@ -187,7 +277,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>5458.4189453125</v>
@@ -196,7 +286,7 @@
         <v>4903.72900390625</v>
       </c>
       <c r="D3" s="1">
-        <v>5661.517578125</v>
+        <v>5644.63525390625</v>
       </c>
       <c r="E3" s="1">
         <v>5649.48095703125</v>
@@ -204,7 +294,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>3261.50732421875</v>
@@ -213,7 +303,7 @@
         <v>1850.6451416015625</v>
       </c>
       <c r="D4" s="1">
-        <v>3240.931884765625</v>
+        <v>3259.81787109375</v>
       </c>
       <c r="E4" s="1">
         <v>2729.49609375</v>
@@ -221,7 +311,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>687.37933349609375</v>
@@ -230,7 +320,7 @@
         <v>593.37939453125</v>
       </c>
       <c r="D5" s="1">
-        <v>719.113525390625</v>
+        <v>725.3248291015625</v>
       </c>
       <c r="E5" s="1">
         <v>726.86834716796875</v>
@@ -238,7 +328,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>18424.37890625</v>
@@ -247,7 +337,7 @@
         <v>16862.662109375</v>
       </c>
       <c r="D6" s="1">
-        <v>17686.43359375</v>
+        <v>17655.861328125</v>
       </c>
       <c r="E6" s="1">
         <v>17539.65625</v>
@@ -255,7 +345,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>5047.43408203125</v>
@@ -264,7 +354,7 @@
         <v>4649.72900390625</v>
       </c>
       <c r="D7" s="1">
-        <v>5218.919921875</v>
+        <v>5202.6455078125</v>
       </c>
       <c r="E7" s="1">
         <v>5235.05859375</v>
@@ -272,7 +362,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1">
         <v>373.04281616210938</v>
@@ -281,7 +371,7 @@
         <v>112.54307556152344</v>
       </c>
       <c r="D8" s="1">
-        <v>267.57064819335938</v>
+        <v>268.7060546875</v>
       </c>
       <c r="E8" s="1">
         <v>222.05076599121094</v>
@@ -289,7 +379,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>156.15913391113281</v>
@@ -298,7 +388,7 @@
         <v>72.624786376953125</v>
       </c>
       <c r="D9" s="1">
-        <v>132.19978332519531</v>
+        <v>132.14393615722656</v>
       </c>
       <c r="E9" s="1">
         <v>125.51691436767578</v>
@@ -306,7 +396,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>166.85356140136719</v>
@@ -315,7 +405,7 @@
         <v>168.50958251953125</v>
       </c>
       <c r="D10" s="1">
-        <v>148.54734802246094</v>
+        <v>148.19647216796875</v>
       </c>
       <c r="E10" s="1">
         <v>158.37770080566406</v>
@@ -323,7 +413,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
         <v>87.610565185546875</v>
@@ -332,7 +422,7 @@
         <v>88.107711791992188</v>
       </c>
       <c r="D11" s="1">
-        <v>86.51495361328125</v>
+        <v>85.916633605957031</v>
       </c>
       <c r="E11" s="1">
         <v>86.294624328613281</v>
@@ -340,7 +430,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
         <v>16.464370727539062</v>
@@ -349,7 +439,7 @@
         <v>11.044790267944336</v>
       </c>
       <c r="D12" s="1">
-        <v>13.752241134643555</v>
+        <v>13.9188232421875</v>
       </c>
       <c r="E12" s="1">
         <v>15.024543762207031</v>
@@ -357,7 +447,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>8.7490739822387695</v>
@@ -366,7 +456,7 @@
         <v>6.0089616775512695</v>
       </c>
       <c r="D13" s="1">
-        <v>8.7734851837158203</v>
+        <v>8.8712673187255859</v>
       </c>
       <c r="E13" s="1">
         <v>8.7349672317504883</v>
@@ -374,7 +464,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>150.38919067382812</v>
@@ -383,7 +473,7 @@
         <v>157.46478271484375</v>
       </c>
       <c r="D14" s="1">
-        <v>134.79510498046875</v>
+        <v>134.27764892578125</v>
       </c>
       <c r="E14" s="1">
         <v>143.35316467285156</v>
@@ -391,7 +481,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>83.491645812988281</v>
@@ -400,7 +490,7 @@
         <v>84.535980224609375</v>
       </c>
       <c r="D15" s="1">
-        <v>80.659614562988281</v>
+        <v>80.026329040527344</v>
       </c>
       <c r="E15" s="1">
         <v>80.80096435546875</v>
@@ -408,7 +498,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>12.018832206726074</v>
@@ -417,7 +507,7 @@
         <v>6.7438039779663086</v>
       </c>
       <c r="D16" s="1">
-        <v>9.2980051040649414</v>
+        <v>9.4426088333129883</v>
       </c>
       <c r="E16" s="1">
         <v>9.8256950378417969</v>
@@ -425,7 +515,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
         <v>7.4068698883056641</v>
@@ -434,7 +524,7 @@
         <v>3.9516036510467529</v>
       </c>
       <c r="D17" s="1">
-        <v>6.2763347625732422</v>
+        <v>6.3657279014587402</v>
       </c>
       <c r="E17" s="1">
         <v>6.303382396697998</v>
@@ -442,7 +532,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>1072903.75</v>
@@ -451,7 +541,7 @@
         <v>1071852.25</v>
       </c>
       <c r="D18" s="1">
-        <v>1068662.75</v>
+        <v>1068316.625</v>
       </c>
       <c r="E18" s="1">
         <v>1068950.375</v>
@@ -459,7 +549,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1">
         <v>1110365.75</v>
@@ -468,7 +558,7 @@
         <v>1102264.875</v>
       </c>
       <c r="D19" s="1">
-        <v>1091760</v>
+        <v>1091070.875</v>
       </c>
       <c r="E19" s="1">
         <v>1091289.5</v>
@@ -476,7 +566,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>17.120086669921875</v>
@@ -493,7 +583,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1">
         <v>2.1214809417724609</v>
@@ -510,7 +600,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>7.4784469604492188</v>
@@ -527,7 +617,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>10.976573944091797</v>
@@ -544,7 +634,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>4.6666665077209473</v>
@@ -561,7 +651,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>0.47501686215400696</v>
@@ -578,7 +668,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1">
         <v>66</v>
